--- a/18.- Repaso_2_EX_P2025.xlsx
+++ b/18.- Repaso_2_EX_P2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA26EDC-3986-3F4D-96E7-525938448F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935F0B0C-E79A-ED41-9097-A1A91CF99EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{443ECD19-7701-7346-B2F8-5276DA26F10F}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="4" xr2:uid="{443ECD19-7701-7346-B2F8-5276DA26F10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities" sheetId="4" r:id="rId1"/>
@@ -368,6 +368,8 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,8 +382,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -1391,21 +1391,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
@@ -2844,7 +2844,7 @@
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
       <c r="Y30" s="21"/>
-      <c r="Z30" s="38">
+      <c r="Z30" s="34">
         <v>-1740885.0819999999</v>
       </c>
       <c r="AA30" s="21"/>
@@ -10292,14 +10292,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -40248,8 +40248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A87322-EF6A-304F-8412-1D58385FFB12}">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40509,7 +40509,7 @@
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="35">
         <f>SUM(C12:E12)/SUM(C7:E7)</f>
         <v>0.66457157738591377</v>
       </c>
@@ -40528,7 +40528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F28033-1567-A440-A2CF-770C7722F00B}">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -40787,7 +40787,7 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="35">
         <f>SUM(C12:E12)/SUM(C7:E7)</f>
         <v>0.66457157738591377</v>
       </c>
